--- a/excel/exported/grades.xlsx
+++ b/excel/exported/grades.xlsx
@@ -10,17 +10,6 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>GL3</t>
-  </si>
-  <si>
-    <t>2020-10-09 16:48:33.0000000</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,23 +51,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
 </worksheet>
 </file>
--- a/excel/exported/grades.xlsx
+++ b/excel/exported/grades.xlsx
@@ -10,6 +10,17 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+  <si>
+    <t>GL3</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:48:33.0000000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,8 +62,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>